--- a/Code/Results/Cases/Case_3_230/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_230/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.715129794801896</v>
+        <v>1.563671284420025</v>
       </c>
       <c r="C2">
-        <v>0.3236982327815952</v>
+        <v>0.1639436282541027</v>
       </c>
       <c r="D2">
-        <v>0.07548371835051171</v>
+        <v>0.1567694438889262</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8738802606794422</v>
+        <v>1.627944705169611</v>
       </c>
       <c r="G2">
-        <v>0.0008033715882805508</v>
+        <v>0.002473875492890764</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.06618843442766753</v>
+        <v>0.1893502527895983</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3189604783319169</v>
+        <v>0.3784317300754338</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8009167816006055</v>
+        <v>1.425601805552539</v>
       </c>
       <c r="O2">
-        <v>2.219286268278438</v>
+        <v>4.074241858967383</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.366788268310131</v>
+        <v>1.466737609897677</v>
       </c>
       <c r="C3">
-        <v>0.2929398391831626</v>
+        <v>0.1537511046946065</v>
       </c>
       <c r="D3">
-        <v>0.07087817742725377</v>
+        <v>0.1561867015483358</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8319580528086234</v>
+        <v>1.629938341303188</v>
       </c>
       <c r="G3">
-        <v>0.0008078697139813351</v>
+        <v>0.002476927565470671</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.06795146871476554</v>
+        <v>0.1909406558013327</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2857095566972134</v>
+        <v>0.3710209256508676</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8295187194352067</v>
+        <v>1.438651867270686</v>
       </c>
       <c r="O3">
-        <v>2.115953446799125</v>
+        <v>4.081803531834879</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.153785566432532</v>
+        <v>1.407639608704415</v>
       </c>
       <c r="C4">
-        <v>0.2740211427235408</v>
+        <v>0.1474472678269336</v>
       </c>
       <c r="D4">
-        <v>0.06810683797646533</v>
+        <v>0.1558741488387909</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8078860205460288</v>
+        <v>1.632048475836669</v>
       </c>
       <c r="G4">
-        <v>0.0008107250924061236</v>
+        <v>0.002478903121655551</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06913532434531433</v>
+        <v>0.1919847313962535</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2655218212108537</v>
+        <v>0.3666133597237859</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8481904562589762</v>
+        <v>1.447208065438218</v>
       </c>
       <c r="O4">
-        <v>2.057182504281258</v>
+        <v>4.088813334630061</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.067171544486484</v>
+        <v>1.383663772141688</v>
       </c>
       <c r="C5">
-        <v>0.266301401672294</v>
+        <v>0.1448670838160382</v>
       </c>
       <c r="D5">
-        <v>0.06699109794102043</v>
+        <v>0.1557582060865599</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7984735958282343</v>
+        <v>1.633131185704322</v>
       </c>
       <c r="G5">
-        <v>0.0008119126308888309</v>
+        <v>0.00247973379460753</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.06964259456327504</v>
+        <v>0.192427202990423</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2573480727073729</v>
+        <v>0.3648532894745813</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8560706842013417</v>
+        <v>1.450831516309322</v>
       </c>
       <c r="O5">
-        <v>2.034343704007796</v>
+        <v>4.092264828195738</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.052799619392943</v>
+        <v>1.37968911576462</v>
       </c>
       <c r="C6">
-        <v>0.2650188733126555</v>
+        <v>0.1444379668092068</v>
       </c>
       <c r="D6">
-        <v>0.06680663486785932</v>
+        <v>0.1557396452686817</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.796934021944999</v>
+        <v>1.633324426610351</v>
       </c>
       <c r="G6">
-        <v>0.0008121112795065744</v>
+        <v>0.002479873276836672</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.06972830835282195</v>
+        <v>0.1925017023541695</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2559938964353279</v>
+        <v>0.3645632132982115</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8573953589414813</v>
+        <v>1.451441448387726</v>
       </c>
       <c r="O6">
-        <v>2.030616595354502</v>
+        <v>4.092873872301993</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.152616749927859</v>
+        <v>1.407315826574575</v>
       </c>
       <c r="C7">
-        <v>0.2739170754358753</v>
+        <v>0.1474125162020528</v>
       </c>
       <c r="D7">
-        <v>0.06809173640519361</v>
+        <v>0.1558725388735027</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.8077575021235575</v>
+        <v>1.632062175464995</v>
       </c>
       <c r="G7">
-        <v>0.0008107410104820539</v>
+        <v>0.002478914220614771</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.06914206582469795</v>
+        <v>0.1919906298633602</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.265411378723968</v>
+        <v>0.3665894766201347</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8482956430817552</v>
+        <v>1.447256378831113</v>
       </c>
       <c r="O7">
-        <v>2.056870077871963</v>
+        <v>4.088857474101189</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.594817038871668</v>
+        <v>1.53016234831955</v>
       </c>
       <c r="C8">
-        <v>0.3130983499763431</v>
+        <v>0.1604387907389366</v>
       </c>
       <c r="D8">
-        <v>0.07388363262704445</v>
+        <v>0.1565591489092313</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8590653549908396</v>
+        <v>1.628448217893585</v>
       </c>
       <c r="G8">
-        <v>0.0008049034018569339</v>
+        <v>0.002474906812594662</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.06677489721998953</v>
+        <v>0.1898846094210569</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3074453258330863</v>
+        <v>0.3758469642448716</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8105435321350498</v>
+        <v>1.429988733989084</v>
       </c>
       <c r="O8">
-        <v>2.182646468156918</v>
+        <v>4.076357720884346</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.470687894855416</v>
+        <v>1.774338678260847</v>
       </c>
       <c r="C9">
-        <v>0.3897700035887226</v>
+        <v>0.1856163979789471</v>
       </c>
       <c r="D9">
-        <v>0.08571901398776305</v>
+        <v>0.1582628260721108</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9739930055076798</v>
+        <v>1.628392956809719</v>
       </c>
       <c r="G9">
-        <v>0.0007941770397728032</v>
+        <v>0.002467850711595285</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.06296753501772479</v>
+        <v>0.1862901649098454</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3919080571817801</v>
+        <v>0.3951270654434609</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.7456897662534772</v>
+        <v>1.400434784739446</v>
       </c>
       <c r="O9">
-        <v>2.46951084164138</v>
+        <v>4.070641485079278</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.122144358238131</v>
+        <v>1.95567621147336</v>
       </c>
       <c r="C10">
-        <v>0.4461553748344329</v>
+        <v>0.203885460555739</v>
       </c>
       <c r="D10">
-        <v>0.09474987976447125</v>
+        <v>0.1597301021452964</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.068754239032998</v>
+        <v>1.63264389447194</v>
       </c>
       <c r="G10">
-        <v>0.0007867052296853481</v>
+        <v>0.002463150854012553</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.06072381892619561</v>
+        <v>0.1839748821900962</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4555375908622494</v>
+        <v>0.4099724289630018</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.7041822858155982</v>
+        <v>1.381342435363322</v>
       </c>
       <c r="O10">
-        <v>2.709420316525751</v>
+        <v>4.077928409633785</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.420875238763983</v>
+        <v>2.038582378712363</v>
       </c>
       <c r="C11">
-        <v>0.4718563644533447</v>
+        <v>0.2121458098633582</v>
       </c>
       <c r="D11">
-        <v>0.09894171942121943</v>
+        <v>0.1604439688765353</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.114488140138818</v>
+        <v>1.635510867481003</v>
       </c>
       <c r="G11">
-        <v>0.0007833876067948615</v>
+        <v>0.002461116874493641</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.05983390790124332</v>
+        <v>0.1829921080846297</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.4849068476981415</v>
+        <v>0.4168724713372853</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.686763248818302</v>
+        <v>1.373224928281047</v>
       </c>
       <c r="O11">
-        <v>2.826002060326999</v>
+        <v>4.083744214090103</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.534395735664077</v>
+        <v>2.07003513517202</v>
       </c>
       <c r="C12">
-        <v>0.4815993587020557</v>
+        <v>0.2152664272371396</v>
       </c>
       <c r="D12">
-        <v>0.1005420263731267</v>
+        <v>0.1607209210622642</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.132218489560046</v>
+        <v>1.63673076070036</v>
       </c>
       <c r="G12">
-        <v>0.0007821423662529353</v>
+        <v>0.002460361536833711</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.05951668310678571</v>
+        <v>0.1826300764778317</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.4960963264884128</v>
+        <v>0.419506308510762</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6803893385319597</v>
+        <v>1.37023261676358</v>
       </c>
       <c r="O12">
-        <v>2.871319320381417</v>
+        <v>4.086306557752778</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.509928452533188</v>
+        <v>2.063258668552237</v>
       </c>
       <c r="C13">
-        <v>0.4795005046385654</v>
+        <v>0.2145946779890551</v>
       </c>
       <c r="D13">
-        <v>0.1001967803898722</v>
+        <v>0.1606609804643071</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.128381048650226</v>
+        <v>1.636462064196294</v>
       </c>
       <c r="G13">
-        <v>0.0007824100691281209</v>
+        <v>0.002460523551108364</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.05958410805406444</v>
+        <v>0.1827075963434339</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.4936833308349691</v>
+        <v>0.4189381359097126</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6817519879481466</v>
+        <v>1.370873435160306</v>
       </c>
       <c r="O13">
-        <v>2.861505720313971</v>
+        <v>4.085738692758667</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.430206336818003</v>
+        <v>2.041168863196333</v>
       </c>
       <c r="C14">
-        <v>0.4726576945546128</v>
+        <v>0.2124026941017405</v>
       </c>
       <c r="D14">
-        <v>0.09907311262604424</v>
+        <v>0.1604666213559582</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.115938365959209</v>
+        <v>1.635608538378065</v>
       </c>
       <c r="G14">
-        <v>0.0007832849419896009</v>
+        <v>0.002461054434434377</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.05980740775731164</v>
+        <v>0.1829621206817116</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.4858260082386465</v>
+        <v>0.4170887399951084</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6862343366946817</v>
+        <v>1.372977113489625</v>
       </c>
       <c r="O14">
-        <v>2.829706286393815</v>
+        <v>4.083947801968861</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.381427737262243</v>
+        <v>2.027645722445129</v>
       </c>
       <c r="C15">
-        <v>0.4684677562759987</v>
+        <v>0.2110590725782799</v>
       </c>
       <c r="D15">
-        <v>0.09838654836469374</v>
+        <v>0.1603484323949687</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.108371566980864</v>
+        <v>1.635103211418183</v>
       </c>
       <c r="G15">
-        <v>0.0007838222493457954</v>
+        <v>0.002461381552357612</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.05994678895611472</v>
+        <v>0.1831193423352602</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.4810222420568664</v>
+        <v>0.4159586536637363</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6890092238304248</v>
+        <v>1.374276304961008</v>
       </c>
       <c r="O15">
-        <v>2.810383707531173</v>
+        <v>4.082897727128255</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.102674115384502</v>
+        <v>1.950266303625313</v>
       </c>
       <c r="C16">
-        <v>0.4444770523178363</v>
+        <v>0.2033446007539226</v>
       </c>
       <c r="D16">
-        <v>0.09447769351983482</v>
+        <v>0.1596843789978308</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.065821140467364</v>
+        <v>1.632475312807898</v>
       </c>
       <c r="G16">
-        <v>0.0007869236284121233</v>
+        <v>0.002463285866246978</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.06078468871524834</v>
+        <v>0.1840405258963891</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4536273584441091</v>
+        <v>0.4095244346148803</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.7053510993730683</v>
+        <v>1.381884355081674</v>
       </c>
       <c r="O16">
-        <v>2.70195959385839</v>
+        <v>4.077598692042329</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.932315378808539</v>
+        <v>1.902901598150265</v>
       </c>
       <c r="C17">
-        <v>0.4297748170029081</v>
+        <v>0.1985990158973152</v>
       </c>
       <c r="D17">
-        <v>0.09210179603389435</v>
+        <v>0.1592888544853253</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.040414098338147</v>
+        <v>1.63110222529231</v>
       </c>
       <c r="G17">
-        <v>0.0007888466256955565</v>
+        <v>0.002464480690310195</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.06133286873733468</v>
+        <v>0.184623682559014</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4369348769006365</v>
+        <v>0.405614730265313</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.7157592254773135</v>
+        <v>1.386697031279134</v>
       </c>
       <c r="O17">
-        <v>2.637420443274522</v>
+        <v>4.074988736562716</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.834549992338566</v>
+        <v>1.875697815471426</v>
       </c>
       <c r="C18">
-        <v>0.4213230686467568</v>
+        <v>0.1958647523401282</v>
       </c>
       <c r="D18">
-        <v>0.09074305756777079</v>
+        <v>0.1590657289080823</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.026045665911937</v>
+        <v>1.630400296492326</v>
       </c>
       <c r="G18">
-        <v>0.0007899603790616921</v>
+        <v>0.002465177715278544</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.06166041442394743</v>
+        <v>0.1849657313323476</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4273732469602862</v>
+        <v>0.4033798005471851</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.7218826378237111</v>
+        <v>1.389518590791219</v>
       </c>
       <c r="O18">
-        <v>2.600993660229875</v>
+        <v>4.07372293660012</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.801484561037455</v>
+        <v>1.866493855597525</v>
       </c>
       <c r="C19">
-        <v>0.4184621456532795</v>
+        <v>0.1949381703800555</v>
       </c>
       <c r="D19">
-        <v>0.09028432738735148</v>
+        <v>0.1589909342965612</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.021221843967126</v>
+        <v>1.630177719973219</v>
       </c>
       <c r="G19">
-        <v>0.0007903388169801965</v>
+        <v>0.002465415400301893</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.06177339099218315</v>
+        <v>0.1850826825640972</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4241424125447537</v>
+        <v>0.4026254720603788</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.7239790886682229</v>
+        <v>1.390483100710661</v>
       </c>
       <c r="O19">
-        <v>2.588776534052272</v>
+        <v>4.0733347728588</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.950427154356191</v>
+        <v>1.907939612768359</v>
       </c>
       <c r="C20">
-        <v>0.4313393975365045</v>
+        <v>0.199104682058703</v>
       </c>
       <c r="D20">
-        <v>0.09235389912110747</v>
+        <v>0.1593305068304645</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.043093122368134</v>
+        <v>1.631239301938066</v>
       </c>
       <c r="G20">
-        <v>0.0007886411271876836</v>
+        <v>0.002464352485935414</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.06127323976545895</v>
+        <v>0.1845609181606029</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4387076885806067</v>
+        <v>0.4060294949748311</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.7146370068577212</v>
+        <v>1.386179183486355</v>
       </c>
       <c r="O20">
-        <v>2.644218177881527</v>
+        <v>4.075242207256082</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.453611400498403</v>
+        <v>2.047655613859661</v>
       </c>
       <c r="C21">
-        <v>0.4746672789788988</v>
+        <v>0.2130467349372793</v>
       </c>
       <c r="D21">
-        <v>0.09940280200855511</v>
+        <v>0.1605235298603915</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.119581618541417</v>
+        <v>1.635855596244795</v>
       </c>
       <c r="G21">
-        <v>0.0007830276753874146</v>
+        <v>0.002460898097883635</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.05974127480565627</v>
+        <v>0.1828870860280745</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.4881319906787809</v>
+        <v>0.4176313854330544</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6849116296146036</v>
+        <v>1.372356997388735</v>
       </c>
       <c r="O21">
-        <v>2.83901395774015</v>
+        <v>4.084464055914168</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.784817893906052</v>
+        <v>2.139305341601357</v>
       </c>
       <c r="C22">
-        <v>0.5030479976635149</v>
+        <v>0.2221154799609053</v>
       </c>
       <c r="D22">
-        <v>0.1040856167888009</v>
+        <v>0.1613418419048358</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.17199002618861</v>
+        <v>1.639655041236907</v>
       </c>
       <c r="G22">
-        <v>0.0007794231687081025</v>
+        <v>0.002458727190799504</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.05885574932943882</v>
+        <v>0.1818521443644343</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5208335274896996</v>
+        <v>0.4253358721440605</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.6667862903538619</v>
+        <v>1.363799091605763</v>
       </c>
       <c r="O22">
-        <v>2.973197465443121</v>
+        <v>4.092589748820302</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.607812564030894</v>
+        <v>2.09035984639246</v>
       </c>
       <c r="C23">
-        <v>0.4878937135319461</v>
+        <v>0.2172793245773903</v>
       </c>
       <c r="D23">
-        <v>0.1015790391762508</v>
+        <v>0.1609015761474097</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.143785355531719</v>
+        <v>1.637555600402123</v>
       </c>
       <c r="G23">
-        <v>0.0007813413050068256</v>
+        <v>0.00245987793141193</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.0593174487738608</v>
+        <v>0.1823991160376721</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5033410427925418</v>
+        <v>0.4212127375883057</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.6763368274697186</v>
+        <v>1.368323087161045</v>
       </c>
       <c r="O23">
-        <v>2.90091734898013</v>
+        <v>4.088060754563372</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.942238276184526</v>
+        <v>1.905661842697384</v>
       </c>
       <c r="C24">
-        <v>0.4306320485445383</v>
+        <v>0.1988760889514083</v>
       </c>
       <c r="D24">
-        <v>0.09223990096803192</v>
+        <v>0.1593116625126356</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.041881195552421</v>
+        <v>1.631177057099819</v>
       </c>
       <c r="G24">
-        <v>0.0007887340075389034</v>
+        <v>0.002464410415730082</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.06130015950442314</v>
+        <v>0.1845892728120653</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4379060916158863</v>
+        <v>0.405841939931932</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.7151439278343616</v>
+        <v>1.386413132118449</v>
       </c>
       <c r="O24">
-        <v>2.641142818824903</v>
+        <v>4.075126882104087</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.232547453229699</v>
+        <v>1.707937653241288</v>
       </c>
       <c r="C25">
-        <v>0.3690305927309794</v>
+        <v>0.1788450113056967</v>
       </c>
       <c r="D25">
-        <v>0.08246171523050094</v>
+        <v>0.1577639192807325</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.9412112734780038</v>
+        <v>1.627654617411196</v>
       </c>
       <c r="G25">
-        <v>0.0007970046691808261</v>
+        <v>0.00246967418000262</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.06390372544580458</v>
+        <v>0.1872053239408764</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3688077339867135</v>
+        <v>0.3897913716986636</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.7621978357155683</v>
+        <v>1.407969288058069</v>
       </c>
       <c r="O25">
-        <v>2.387141877489341</v>
+        <v>4.070172748296528</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_230/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_230/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.563671284420025</v>
+        <v>2.71512979480201</v>
       </c>
       <c r="C2">
-        <v>0.1639436282541027</v>
+        <v>0.3236982327817373</v>
       </c>
       <c r="D2">
-        <v>0.1567694438889262</v>
+        <v>0.0754837183506325</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.627944705169611</v>
+        <v>0.873880260679428</v>
       </c>
       <c r="G2">
-        <v>0.002473875492890764</v>
+        <v>0.000803371588307528</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1893502527895983</v>
+        <v>0.06618843442763733</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3784317300754338</v>
+        <v>0.3189604783319595</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.425601805552539</v>
+        <v>0.8009167816005984</v>
       </c>
       <c r="O2">
-        <v>4.074241858967383</v>
+        <v>2.21928626827841</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.466737609897677</v>
+        <v>2.366788268310245</v>
       </c>
       <c r="C3">
-        <v>0.1537511046946065</v>
+        <v>0.2929398391834042</v>
       </c>
       <c r="D3">
-        <v>0.1561867015483358</v>
+        <v>0.07087817742750246</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.629938341303188</v>
+        <v>0.831958052808595</v>
       </c>
       <c r="G3">
-        <v>0.002476927565470671</v>
+        <v>0.0008078697139279502</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1909406558013327</v>
+        <v>0.06795146871474422</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3710209256508676</v>
+        <v>0.2857095566971424</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.438651867270686</v>
+        <v>0.8295187194352067</v>
       </c>
       <c r="O3">
-        <v>4.081803531834879</v>
+        <v>2.115953446799182</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.407639608704415</v>
+        <v>2.153785566432532</v>
       </c>
       <c r="C4">
-        <v>0.1474472678269336</v>
+        <v>0.2740211427233135</v>
       </c>
       <c r="D4">
-        <v>0.1558741488387909</v>
+        <v>0.06810683797646533</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.632048475836669</v>
+        <v>0.8078860205459932</v>
       </c>
       <c r="G4">
-        <v>0.002478903121655551</v>
+        <v>0.0008107250924307186</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1919847313962535</v>
+        <v>0.06913532434528413</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3666133597237859</v>
+        <v>0.2655218212108963</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.447208065438218</v>
+        <v>0.8481904562589406</v>
       </c>
       <c r="O4">
-        <v>4.088813334630061</v>
+        <v>2.057182504281144</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.383663772141688</v>
+        <v>2.067171544486541</v>
       </c>
       <c r="C5">
-        <v>0.1448670838160382</v>
+        <v>0.2663014016725214</v>
       </c>
       <c r="D5">
-        <v>0.1557582060865599</v>
+        <v>0.06699109794096358</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.633131185704322</v>
+        <v>0.7984735958282272</v>
       </c>
       <c r="G5">
-        <v>0.00247973379460753</v>
+        <v>0.0008119126309123676</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.192427202990423</v>
+        <v>0.06964259456317734</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3648532894745813</v>
+        <v>0.2573480727073303</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.450831516309322</v>
+        <v>0.8560706842013275</v>
       </c>
       <c r="O5">
-        <v>4.092264828195738</v>
+        <v>2.034343704007824</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.37968911576462</v>
+        <v>2.052799619393113</v>
       </c>
       <c r="C6">
-        <v>0.1444379668092068</v>
+        <v>0.2650188733127408</v>
       </c>
       <c r="D6">
-        <v>0.1557396452686817</v>
+        <v>0.06680663486785932</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.633324426610351</v>
+        <v>0.7969340219450132</v>
       </c>
       <c r="G6">
-        <v>0.002479873276836672</v>
+        <v>0.0008121112795056862</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1925017023541695</v>
+        <v>0.06972830835272781</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3645632132982115</v>
+        <v>0.2559938964352284</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.451441448387726</v>
+        <v>0.8573953589414884</v>
       </c>
       <c r="O6">
-        <v>4.092873872301993</v>
+        <v>2.030616595354587</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.407315826574575</v>
+        <v>2.152616749928029</v>
       </c>
       <c r="C7">
-        <v>0.1474125162020528</v>
+        <v>0.2739170754359037</v>
       </c>
       <c r="D7">
-        <v>0.1558725388735027</v>
+        <v>0.06809173640512256</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.632062175464995</v>
+        <v>0.8077575021235575</v>
       </c>
       <c r="G7">
-        <v>0.002478914220614771</v>
+        <v>0.0008107410104529755</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1919906298633602</v>
+        <v>0.06914206582462157</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3665894766201347</v>
+        <v>0.265411378723968</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.447256378831113</v>
+        <v>0.8482956430817694</v>
       </c>
       <c r="O7">
-        <v>4.088857474101189</v>
+        <v>2.056870077871963</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.53016234831955</v>
+        <v>2.594817038871497</v>
       </c>
       <c r="C8">
-        <v>0.1604387907389366</v>
+        <v>0.3130983499763573</v>
       </c>
       <c r="D8">
-        <v>0.1565591489092313</v>
+        <v>0.0738836326271155</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.628448217893585</v>
+        <v>0.8590653549908396</v>
       </c>
       <c r="G8">
-        <v>0.002474906812594662</v>
+        <v>0.000804903401886967</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1898846094210569</v>
+        <v>0.06677489722006058</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3758469642448716</v>
+        <v>0.307445325833001</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.429988733989084</v>
+        <v>0.8105435321350498</v>
       </c>
       <c r="O8">
-        <v>4.076357720884346</v>
+        <v>2.182646468156832</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.774338678260847</v>
+        <v>3.470687894855416</v>
       </c>
       <c r="C9">
-        <v>0.1856163979789471</v>
+        <v>0.3897700035888363</v>
       </c>
       <c r="D9">
-        <v>0.1582628260721108</v>
+        <v>0.08571901398776305</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.628392956809719</v>
+        <v>0.973993005507694</v>
       </c>
       <c r="G9">
-        <v>0.002467850711595285</v>
+        <v>0.0007941770397441454</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1862901649098454</v>
+        <v>0.06296753501773544</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3951270654434609</v>
+        <v>0.3919080571817801</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.400434784739446</v>
+        <v>0.7456897662534772</v>
       </c>
       <c r="O9">
-        <v>4.070641485079278</v>
+        <v>2.46951084164138</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.95567621147336</v>
+        <v>4.122144358238415</v>
       </c>
       <c r="C10">
-        <v>0.203885460555739</v>
+        <v>0.4461553748344045</v>
       </c>
       <c r="D10">
-        <v>0.1597301021452964</v>
+        <v>0.0947498797642865</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.63264389447194</v>
+        <v>1.068754239032998</v>
       </c>
       <c r="G10">
-        <v>0.002463150854012553</v>
+        <v>0.0007867052296530869</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1839748821900962</v>
+        <v>0.06072381892634482</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4099724289630018</v>
+        <v>0.4555375908621926</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.381342435363322</v>
+        <v>0.7041822858155982</v>
       </c>
       <c r="O10">
-        <v>4.077928409633785</v>
+        <v>2.709420316525694</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.038582378712363</v>
+        <v>4.420875238763813</v>
       </c>
       <c r="C11">
-        <v>0.2121458098633582</v>
+        <v>0.4718563644530036</v>
       </c>
       <c r="D11">
-        <v>0.1604439688765353</v>
+        <v>0.09894171942121233</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.635510867481003</v>
+        <v>1.114488140138818</v>
       </c>
       <c r="G11">
-        <v>0.002461116874493641</v>
+        <v>0.0007833876068515204</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1829921080846297</v>
+        <v>0.05983390790128951</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.4168724713372853</v>
+        <v>0.4849068476981557</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.373224928281047</v>
+        <v>0.6867632488182309</v>
       </c>
       <c r="O11">
-        <v>4.083744214090103</v>
+        <v>2.826002060326999</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.07003513517202</v>
+        <v>4.534395735664077</v>
       </c>
       <c r="C12">
-        <v>0.2152664272371396</v>
+        <v>0.4815993587020841</v>
       </c>
       <c r="D12">
-        <v>0.1607209210622642</v>
+        <v>0.100542026373013</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.63673076070036</v>
+        <v>1.132218489560046</v>
       </c>
       <c r="G12">
-        <v>0.002460361536833711</v>
+        <v>0.0007821423662488006</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1826300764778317</v>
+        <v>0.05951668310682479</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.419506308510762</v>
+        <v>0.4960963264884271</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.37023261676358</v>
+        <v>0.6803893385320237</v>
       </c>
       <c r="O12">
-        <v>4.086306557752778</v>
+        <v>2.871319320381502</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.063258668552237</v>
+        <v>4.50992845253279</v>
       </c>
       <c r="C13">
-        <v>0.2145946779890551</v>
+        <v>0.479500504638537</v>
       </c>
       <c r="D13">
-        <v>0.1606609804643071</v>
+        <v>0.1001967803896946</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.636462064196294</v>
+        <v>1.128381048650226</v>
       </c>
       <c r="G13">
-        <v>0.002460523551108364</v>
+        <v>0.0007824100691597295</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1827075963434339</v>
+        <v>0.05958410805405023</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.4189381359097126</v>
+        <v>0.4936833308349406</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.370873435160306</v>
+        <v>0.6817519879481466</v>
       </c>
       <c r="O13">
-        <v>4.085738692758667</v>
+        <v>2.861505720314028</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.041168863196333</v>
+        <v>4.430206336817889</v>
       </c>
       <c r="C14">
-        <v>0.2124026941017405</v>
+        <v>0.4726576945547265</v>
       </c>
       <c r="D14">
-        <v>0.1604666213559582</v>
+        <v>0.09907311262603713</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.635608538378065</v>
+        <v>1.115938365959195</v>
       </c>
       <c r="G14">
-        <v>0.002461054434434377</v>
+        <v>0.0007832849419898229</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1829621206817116</v>
+        <v>0.05980740775735072</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.4170887399951084</v>
+        <v>0.4858260082386465</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.372977113489625</v>
+        <v>0.6862343366946746</v>
       </c>
       <c r="O14">
-        <v>4.083947801968861</v>
+        <v>2.829706286393844</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.027645722445129</v>
+        <v>4.381427737262243</v>
       </c>
       <c r="C15">
-        <v>0.2110590725782799</v>
+        <v>0.4684677562762545</v>
       </c>
       <c r="D15">
-        <v>0.1603484323949687</v>
+        <v>0.09838654836476479</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.635103211418183</v>
+        <v>1.108371566980864</v>
       </c>
       <c r="G15">
-        <v>0.002461381552357612</v>
+        <v>0.0007838222493460092</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1831193423352602</v>
+        <v>0.05994678895614669</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.4159586536637363</v>
+        <v>0.481022242056909</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.374276304961008</v>
+        <v>0.6890092238304248</v>
       </c>
       <c r="O15">
-        <v>4.082897727128255</v>
+        <v>2.810383707531088</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.950266303625313</v>
+        <v>4.102674115384616</v>
       </c>
       <c r="C16">
-        <v>0.2033446007539226</v>
+        <v>0.4444770523179784</v>
       </c>
       <c r="D16">
-        <v>0.1596843789978308</v>
+        <v>0.09447769351984192</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.632475312807898</v>
+        <v>1.065821140467349</v>
       </c>
       <c r="G16">
-        <v>0.002463285866246978</v>
+        <v>0.0007869236283832019</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1840405258963891</v>
+        <v>0.06078468871534781</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4095244346148803</v>
+        <v>0.4536273584440949</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.381884355081674</v>
+        <v>0.7053510993730754</v>
       </c>
       <c r="O16">
-        <v>4.077598692042329</v>
+        <v>2.701959593858419</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.902901598150265</v>
+        <v>3.932315378808767</v>
       </c>
       <c r="C17">
-        <v>0.1985990158973152</v>
+        <v>0.4297748170031639</v>
       </c>
       <c r="D17">
-        <v>0.1592888544853253</v>
+        <v>0.09210179603377355</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.63110222529231</v>
+        <v>1.040414098338147</v>
       </c>
       <c r="G17">
-        <v>0.002464480690310195</v>
+        <v>0.0007888466257262405</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.184623682559014</v>
+        <v>0.06133286873733113</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.405614730265313</v>
+        <v>0.4369348769006649</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.386697031279134</v>
+        <v>0.7157592254773135</v>
       </c>
       <c r="O17">
-        <v>4.074988736562716</v>
+        <v>2.637420443274522</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.875697815471426</v>
+        <v>3.834549992338623</v>
       </c>
       <c r="C18">
-        <v>0.1958647523401282</v>
+        <v>0.4213230686470979</v>
       </c>
       <c r="D18">
-        <v>0.1590657289080823</v>
+        <v>0.09074305756782763</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.630400296492326</v>
+        <v>1.026045665911965</v>
       </c>
       <c r="G18">
-        <v>0.002465177715278544</v>
+        <v>0.0007899603790017833</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1849657313323476</v>
+        <v>0.06166041442391901</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4033798005471851</v>
+        <v>0.427373246960272</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.389518590791219</v>
+        <v>0.7218826378237324</v>
       </c>
       <c r="O18">
-        <v>4.07372293660012</v>
+        <v>2.600993660229904</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.866493855597525</v>
+        <v>3.801484561037682</v>
       </c>
       <c r="C19">
-        <v>0.1949381703800555</v>
+        <v>0.418462145653649</v>
       </c>
       <c r="D19">
-        <v>0.1589909342965612</v>
+        <v>0.09028432738735148</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.630177719973219</v>
+        <v>1.02122184396714</v>
       </c>
       <c r="G19">
-        <v>0.002465415400301893</v>
+        <v>0.0007903388169503477</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1850826825640972</v>
+        <v>0.06177339099213341</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4026254720603788</v>
+        <v>0.42414241254491</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.390483100710661</v>
+        <v>0.7239790886682229</v>
       </c>
       <c r="O19">
-        <v>4.0733347728588</v>
+        <v>2.5887765340523</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.907939612768359</v>
+        <v>3.950427154356134</v>
       </c>
       <c r="C20">
-        <v>0.199104682058703</v>
+        <v>0.4313393975363908</v>
       </c>
       <c r="D20">
-        <v>0.1593305068304645</v>
+        <v>0.09235389912097958</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.631239301938066</v>
+        <v>1.043093122368163</v>
       </c>
       <c r="G20">
-        <v>0.002464352485935414</v>
+        <v>0.0007886411271864542</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1845609181606029</v>
+        <v>0.06127323976550159</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4060294949748311</v>
+        <v>0.4387076885806351</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.386179183486355</v>
+        <v>0.7146370068577639</v>
       </c>
       <c r="O20">
-        <v>4.075242207256082</v>
+        <v>2.644218177881527</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.047655613859661</v>
+        <v>4.45361140049846</v>
       </c>
       <c r="C21">
-        <v>0.2130467349372793</v>
+        <v>0.4746672789789272</v>
       </c>
       <c r="D21">
-        <v>0.1605235298603915</v>
+        <v>0.09940280200849116</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.635855596244795</v>
+        <v>1.119581618541417</v>
       </c>
       <c r="G21">
-        <v>0.002460898097883635</v>
+        <v>0.0007830276753542762</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1828870860280745</v>
+        <v>0.05974127480562785</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.4176313854330544</v>
+        <v>0.4881319906787098</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.372356997388735</v>
+        <v>0.6849116296146747</v>
       </c>
       <c r="O21">
-        <v>4.084464055914168</v>
+        <v>2.83901395774015</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.139305341601357</v>
+        <v>4.784817893906165</v>
       </c>
       <c r="C22">
-        <v>0.2221154799609053</v>
+        <v>0.5030479976635149</v>
       </c>
       <c r="D22">
-        <v>0.1613418419048358</v>
+        <v>0.1040856167889359</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.639655041236907</v>
+        <v>1.17199002618861</v>
       </c>
       <c r="G22">
-        <v>0.002458727190799504</v>
+        <v>0.0007794231687667223</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1818521443644343</v>
+        <v>0.05885574932941751</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.4253358721440605</v>
+        <v>0.520833527489728</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.363799091605763</v>
+        <v>0.6667862903538833</v>
       </c>
       <c r="O22">
-        <v>4.092589748820302</v>
+        <v>2.973197465443121</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.09035984639246</v>
+        <v>4.607812564031178</v>
       </c>
       <c r="C23">
-        <v>0.2172793245773903</v>
+        <v>0.4878937135322303</v>
       </c>
       <c r="D23">
-        <v>0.1609015761474097</v>
+        <v>0.1015790391762366</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.637555600402123</v>
+        <v>1.143785355531719</v>
       </c>
       <c r="G23">
-        <v>0.00245987793141193</v>
+        <v>0.0007813413050067777</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1823991160376721</v>
+        <v>0.05931744877380751</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.4212127375883057</v>
+        <v>0.5033410427925133</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.368323087161045</v>
+        <v>0.6763368274697186</v>
       </c>
       <c r="O23">
-        <v>4.088060754563372</v>
+        <v>2.900917348980101</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.905661842697384</v>
+        <v>3.942238276184412</v>
       </c>
       <c r="C24">
-        <v>0.1988760889514083</v>
+        <v>0.4306320485446236</v>
       </c>
       <c r="D24">
-        <v>0.1593116625126356</v>
+        <v>0.09223990096815271</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.631177057099819</v>
+        <v>1.041881195552435</v>
       </c>
       <c r="G24">
-        <v>0.002464410415730082</v>
+        <v>0.0007887340075675132</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1845892728120653</v>
+        <v>0.06130015950435919</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.405841939931932</v>
+        <v>0.4379060916158153</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.386413132118449</v>
+        <v>0.7151439278343545</v>
       </c>
       <c r="O24">
-        <v>4.075126882104087</v>
+        <v>2.641142818824875</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.707937653241288</v>
+        <v>3.232547453229586</v>
       </c>
       <c r="C25">
-        <v>0.1788450113056967</v>
+        <v>0.3690305927308088</v>
       </c>
       <c r="D25">
-        <v>0.1577639192807325</v>
+        <v>0.0824617152304441</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.627654617411196</v>
+        <v>0.9412112734779896</v>
       </c>
       <c r="G25">
-        <v>0.00246967418000262</v>
+        <v>0.0007970046691811592</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1872053239408764</v>
+        <v>0.06390372544571754</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3897913716986636</v>
+        <v>0.3688077339867704</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.407969288058069</v>
+        <v>0.7621978357155612</v>
       </c>
       <c r="O25">
-        <v>4.070172748296528</v>
+        <v>2.387141877489313</v>
       </c>
     </row>
   </sheetData>
